--- a/biology/Botanique/Georges_Truffaut_(1872-1948)/Georges_Truffaut_(1872-1948).xlsx
+++ b/biology/Botanique/Georges_Truffaut_(1872-1948)/Georges_Truffaut_(1872-1948).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Truffaut, né le 13 mai 1872 à Versailles et mort le 25 septembre 1948 à Versailles, est un chimiste et chercheur français, spécialisé dans l'horticulture. Il est le fondateur des jardineries Truffaut.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'Armand-Albert et Marie-Élisabeth Truffaut et frère du précédent, il étudie au lycée Hoche de Versailles, à l'université de Gand en Belgique et poursuit ses études à l'école d'agriculture de Grignon où il obtient le diplôme d'ingénieur agricole.
 En 1897, il fonde les Établissements et laboratoires Georges Truffaut à Versailles sur près de 70 000 m² et répartis sur trois sites ; on y trouve le service comptabilité, les bureaux de commande, les laboratoires, les serres, la roseraie, le service de la revue Jardinage, une usine qui produit de l'électricité, son gaz et pompe son eau également, le service d'architecture de jardins et pour finir les jardins d'expériences sur 3 hectares.
@@ -523,7 +537,7 @@
 En 1923, il lance le premier catalogue de ventes par correspondance.
 En 1926, il officie à la radio pour parler de sujets horticoles. On le retrouve par la suite dans les causeries de Georges Truffaut sur Radio Paris vers 07h00 et en 1935 dès 20h00 sur la TSF, dans une émission du Poste Parisien. Le premier magasin ouvre au 24 avenue Victoria à Paris.
 En 1938, Georges Truffaut est promu officier de la Légion d'honneur pour sa carrière.
-En 1948, Georges Truffaut meurt. Il développera jusqu'à sa mort, l'implantation des magasins Truffaut. Il est inhumé au cimetière des Gonards de Versailles[1].
+En 1948, Georges Truffaut meurt. Il développera jusqu'à sa mort, l'implantation des magasins Truffaut. Il est inhumé au cimetière des Gonards de Versailles.
 </t>
         </is>
       </c>
@@ -552,7 +566,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur</t>
         </is>
